--- a/Dataset_WorkshopOpenRefine_WikiconNL19112022.xlsx
+++ b/Dataset_WorkshopOpenRefine_WikiconNL19112022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KB-OPEN\PresentatiesOlaf\2022\Workshop OpenRefine en Wikimedia Commons - Olaf Janssen - WikiconNL_19112022\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KB-OPEN\PresentatiesOlaf\2022\Workshop OpenRefine en Wikimedia Commons - Olaf Janssen - WikiconNL_19112022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AA70B3-D89C-431C-B716-C64686E985A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFBAD06-EC88-44CC-A1BE-425048CB3ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{90EC6D77-F4E2-4E6C-8193-060F20233EC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{90EC6D77-F4E2-4E6C-8193-060F20233EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="WorkshopOR_19112022" sheetId="1" r:id="rId1"/>
@@ -772,60 +772,6 @@
   </si>
   <si>
     <t>Literatuur</t>
-  </si>
-  <si>
-    <t>File:De Nieuwe Haven van Texel met het dorp 't Schilt in 't verschiet - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 1 van 18.jpg</t>
-  </si>
-  <si>
-    <t>File:Oostelyk Gedeelte van Amsterdam van het IJ te zien - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 2 van 18.jpg</t>
-  </si>
-  <si>
-    <t>File:Haven van Maaslandsluis aan den Mond der Maze - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 4 van 18.jpg</t>
-  </si>
-  <si>
-    <t>File:De Haven van Amsterdam - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 3 van 18.jpg</t>
-  </si>
-  <si>
-    <t>File:De Haven van Medenblik - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 7 van 18.jpg</t>
-  </si>
-  <si>
-    <t>File:Kust van Friesland, naby Harlingen - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 17 van 18.jpg</t>
-  </si>
-  <si>
-    <t>File:Haven van Harlingen, van de Zuiderzee te zien - Nederlandsche havengezichten enz. -  KONB16-533939704 - Prent 14 van 18.jpg</t>
-  </si>
-  <si>
-    <t>File:De Haven van Enkhuysen - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 11 van 18.jpg</t>
-  </si>
-  <si>
-    <t>File:De Haven van Edam - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 6 van 18.jpg</t>
-  </si>
-  <si>
-    <t>File:Gezigt aan de Helder - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 5 van 18.jpg</t>
-  </si>
-  <si>
-    <t>File:De Haven van Zierikzee in Zeeland - Nederlandsche havengezichten enz. -  KONB16-533939704 - Prent 12 van 18.jpg</t>
-  </si>
-  <si>
-    <t>File:Haven van Brouwershaven, in Zeeland op 't Eiland Schouwen - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 13 van 18.jpg</t>
-  </si>
-  <si>
-    <t>File:De Haven van Hoorn - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 10 van 18.jpg</t>
-  </si>
-  <si>
-    <t>File:De Haven en Reede van Helvoetsluys - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 16 van 18.jpg</t>
-  </si>
-  <si>
-    <t>File:Dordrecht van de Merwe te Zien - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 18 van 18.jpg</t>
-  </si>
-  <si>
-    <t>File:Staveren uit de Zuiderzee te zien - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 15 van 18.jpg</t>
-  </si>
-  <si>
-    <t>File:Haven van Middelburg in Zeeland - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 8 van 18.jpg</t>
-  </si>
-  <si>
-    <t>File:Haven van Vlissingen in Zeeland - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 9 van 18.jpg</t>
   </si>
   <si>
     <t>LocalFilename</t>
@@ -1459,6 +1405,60 @@
 =={{int:license-header}}==
 {{PD-art|PD-old-70-1923}}
 [[Category:Nederlandsche havengezichten enz., 1780-1781 - KONB16:533939704]]</t>
+  </si>
+  <si>
+    <t>De Nieuwe Haven van Texel met het dorp 't Schilt in 't verschiet - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 1 van 18.jpg</t>
+  </si>
+  <si>
+    <t>Oostelyk Gedeelte van Amsterdam van het IJ te zien - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 2 van 18.jpg</t>
+  </si>
+  <si>
+    <t>De Haven van Amsterdam - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 3 van 18.jpg</t>
+  </si>
+  <si>
+    <t>Haven van Maaslandsluis aan den Mond der Maze - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 4 van 18.jpg</t>
+  </si>
+  <si>
+    <t>Gezigt aan de Helder - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 5 van 18.jpg</t>
+  </si>
+  <si>
+    <t>De Haven van Edam - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 6 van 18.jpg</t>
+  </si>
+  <si>
+    <t>De Haven van Medenblik - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 7 van 18.jpg</t>
+  </si>
+  <si>
+    <t>Haven van Middelburg in Zeeland - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 8 van 18.jpg</t>
+  </si>
+  <si>
+    <t>Haven van Vlissingen in Zeeland - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 9 van 18.jpg</t>
+  </si>
+  <si>
+    <t>De Haven van Hoorn - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 10 van 18.jpg</t>
+  </si>
+  <si>
+    <t>De Haven van Enkhuysen - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 11 van 18.jpg</t>
+  </si>
+  <si>
+    <t>De Haven van Zierikzee in Zeeland - Nederlandsche havengezichten enz. -  KONB16-533939704 - Prent 12 van 18.jpg</t>
+  </si>
+  <si>
+    <t>Haven van Brouwershaven, in Zeeland op 't Eiland Schouwen - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 13 van 18.jpg</t>
+  </si>
+  <si>
+    <t>Haven van Harlingen, van de Zuiderzee te zien - Nederlandsche havengezichten enz. -  KONB16-533939704 - Prent 14 van 18.jpg</t>
+  </si>
+  <si>
+    <t>Staveren uit de Zuiderzee te zien - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 15 van 18.jpg</t>
+  </si>
+  <si>
+    <t>De Haven en Reede van Helvoetsluys - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 16 van 18.jpg</t>
+  </si>
+  <si>
+    <t>Kust van Friesland, naby Harlingen - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 17 van 18.jpg</t>
+  </si>
+  <si>
+    <t>Dordrecht van de Merwe te Zien - Nederlandsche havengezichten enz. - KONB16-533939704 - Prent 18 van 18.jpg</t>
   </si>
 </sst>
 </file>
@@ -1573,7 +1573,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1589,12 +1589,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1658,7 +1652,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1677,6 +1671,8 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1685,14 +1681,12 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1720,9 +1714,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1748,9 +1739,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1783,58 +1771,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2153,84 +2135,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DE18BA-F0D7-4356-8A5F-C19BD00FC435}">
-  <dimension ref="A1:DW19"/>
+  <dimension ref="A1:BB19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="BC1" sqref="BC1:BM1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="128.85546875" style="39" customWidth="1"/>
-    <col min="2" max="2" width="6" style="46" customWidth="1"/>
-    <col min="3" max="3" width="85.5703125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="37" style="48" customWidth="1"/>
-    <col min="6" max="6" width="113.85546875" style="48" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="34" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="57.28515625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="46"/>
-    <col min="11" max="11" width="30.28515625" style="39" customWidth="1"/>
-    <col min="12" max="12" width="3.5703125" style="34" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" style="39" customWidth="1"/>
-    <col min="14" max="14" width="42.42578125" style="39" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="46"/>
-    <col min="16" max="16" width="47" style="39" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="46"/>
-    <col min="18" max="18" width="3.5703125" style="34" customWidth="1"/>
-    <col min="19" max="20" width="17.42578125" style="39" customWidth="1"/>
-    <col min="21" max="21" width="68.85546875" style="39" customWidth="1"/>
-    <col min="22" max="22" width="150" style="39" customWidth="1"/>
-    <col min="23" max="23" width="26.42578125" style="39" customWidth="1"/>
-    <col min="24" max="24" width="72.85546875" style="39" customWidth="1"/>
-    <col min="25" max="25" width="4.5703125" style="46" customWidth="1"/>
-    <col min="26" max="26" width="3.5703125" style="34" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="39" customWidth="1"/>
-    <col min="28" max="28" width="41.42578125" style="39" customWidth="1"/>
-    <col min="29" max="29" width="20.28515625" style="39" customWidth="1"/>
-    <col min="30" max="30" width="38.7109375" style="39" customWidth="1"/>
-    <col min="31" max="31" width="19.85546875" style="39" customWidth="1"/>
-    <col min="32" max="32" width="39.85546875" style="39" customWidth="1"/>
-    <col min="33" max="33" width="20.7109375" style="39" customWidth="1"/>
-    <col min="34" max="34" width="39.7109375" style="34" customWidth="1"/>
-    <col min="35" max="35" width="37.5703125" style="39" customWidth="1"/>
-    <col min="36" max="36" width="38.42578125" style="39" customWidth="1"/>
-    <col min="37" max="37" width="36.140625" style="39" customWidth="1"/>
-    <col min="38" max="38" width="40.85546875" style="39" customWidth="1"/>
-    <col min="39" max="39" width="33.85546875" style="39" customWidth="1"/>
-    <col min="40" max="40" width="39.85546875" style="39" customWidth="1"/>
-    <col min="41" max="41" width="3.140625" style="34" customWidth="1"/>
-    <col min="42" max="42" width="27.7109375" style="35" customWidth="1"/>
-    <col min="43" max="43" width="23.28515625" style="50" customWidth="1"/>
-    <col min="44" max="44" width="3.28515625" style="34" customWidth="1"/>
-    <col min="45" max="45" width="11.7109375" style="34" customWidth="1"/>
-    <col min="46" max="46" width="10.7109375" style="34" customWidth="1"/>
-    <col min="47" max="47" width="19.42578125" style="34" customWidth="1"/>
-    <col min="48" max="48" width="12.140625" style="34" customWidth="1"/>
-    <col min="49" max="49" width="12.28515625" style="34" customWidth="1"/>
-    <col min="50" max="50" width="12.140625" style="34" customWidth="1"/>
-    <col min="51" max="51" width="13.7109375" style="34" customWidth="1"/>
-    <col min="52" max="52" width="18.42578125" style="34" customWidth="1"/>
-    <col min="53" max="53" width="13.42578125" style="34" customWidth="1"/>
-    <col min="54" max="54" width="18.42578125" style="34" customWidth="1"/>
-    <col min="55" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" width="128.88671875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="6" style="44" customWidth="1"/>
+    <col min="3" max="3" width="85.5546875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="4.5546875" style="44" customWidth="1"/>
+    <col min="5" max="5" width="37" style="46" customWidth="1"/>
+    <col min="6" max="6" width="113.88671875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="4.44140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" style="38" customWidth="1"/>
+    <col min="9" max="9" width="57.33203125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="44"/>
+    <col min="11" max="11" width="30.33203125" style="38" customWidth="1"/>
+    <col min="12" max="12" width="3.5546875" style="33" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" style="38" customWidth="1"/>
+    <col min="14" max="14" width="42.44140625" style="38" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="44"/>
+    <col min="16" max="16" width="47" style="38" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="44"/>
+    <col min="18" max="18" width="3.5546875" style="33" customWidth="1"/>
+    <col min="19" max="20" width="17.44140625" style="38" customWidth="1"/>
+    <col min="21" max="21" width="68.88671875" style="38" customWidth="1"/>
+    <col min="22" max="22" width="150" style="38" customWidth="1"/>
+    <col min="23" max="23" width="26.44140625" style="38" customWidth="1"/>
+    <col min="24" max="24" width="72.88671875" style="38" customWidth="1"/>
+    <col min="25" max="25" width="4.5546875" style="44" customWidth="1"/>
+    <col min="26" max="26" width="3.5546875" style="33" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" style="38" customWidth="1"/>
+    <col min="28" max="28" width="41.44140625" style="38" customWidth="1"/>
+    <col min="29" max="29" width="20.33203125" style="38" customWidth="1"/>
+    <col min="30" max="30" width="38.6640625" style="38" customWidth="1"/>
+    <col min="31" max="31" width="19.88671875" style="38" customWidth="1"/>
+    <col min="32" max="32" width="39.88671875" style="38" customWidth="1"/>
+    <col min="33" max="33" width="20.6640625" style="38" customWidth="1"/>
+    <col min="34" max="34" width="39.6640625" style="33" customWidth="1"/>
+    <col min="35" max="35" width="37.5546875" style="38" customWidth="1"/>
+    <col min="36" max="36" width="38.44140625" style="38" customWidth="1"/>
+    <col min="37" max="37" width="36.109375" style="38" customWidth="1"/>
+    <col min="38" max="38" width="40.88671875" style="38" customWidth="1"/>
+    <col min="39" max="39" width="33.88671875" style="38" customWidth="1"/>
+    <col min="40" max="40" width="39.88671875" style="38" customWidth="1"/>
+    <col min="41" max="41" width="3.109375" style="33" customWidth="1"/>
+    <col min="42" max="42" width="27.6640625" style="34" customWidth="1"/>
+    <col min="43" max="43" width="23.33203125" style="48" customWidth="1"/>
+    <col min="44" max="44" width="3.33203125" style="33" customWidth="1"/>
+    <col min="45" max="45" width="11.6640625" style="33" customWidth="1"/>
+    <col min="46" max="46" width="10.6640625" style="33" customWidth="1"/>
+    <col min="47" max="47" width="19.44140625" style="33" customWidth="1"/>
+    <col min="48" max="48" width="12.109375" style="33" customWidth="1"/>
+    <col min="49" max="49" width="12.33203125" style="33" customWidth="1"/>
+    <col min="50" max="50" width="12.109375" style="33" customWidth="1"/>
+    <col min="51" max="51" width="13.6640625" style="33" customWidth="1"/>
+    <col min="52" max="52" width="18.44140625" style="33" customWidth="1"/>
+    <col min="53" max="53" width="13.44140625" style="33" customWidth="1"/>
+    <col min="54" max="54" width="18.44140625" style="33" customWidth="1"/>
+    <col min="55" max="16384" width="9.109375" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:127" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="47" t="s">
-        <v>263</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>264</v>
+      <c r="D1" s="42"/>
+      <c r="E1" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>246</v>
       </c>
       <c r="G1" s="28"/>
       <c r="H1" s="27" t="s">
@@ -2239,7 +2221,7 @@
       <c r="I1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="44"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="27" t="s">
         <v>232</v>
       </c>
@@ -2250,11 +2232,11 @@
       <c r="N1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="44"/>
+      <c r="O1" s="42"/>
       <c r="P1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="44"/>
+      <c r="Q1" s="42"/>
       <c r="R1" s="29"/>
       <c r="S1" s="30" t="s">
         <v>8</v>
@@ -2274,7 +2256,7 @@
       <c r="X1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="44"/>
+      <c r="Y1" s="42"/>
       <c r="Z1" s="28"/>
       <c r="AA1" s="31" t="s">
         <v>10</v>
@@ -2356,200 +2338,127 @@
       <c r="BB1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="BC1" s="33"/>
-      <c r="BD1" s="33"/>
-      <c r="BE1" s="33"/>
-      <c r="BF1" s="33"/>
-      <c r="BG1" s="33"/>
-      <c r="BH1" s="33"/>
-      <c r="BI1" s="33"/>
-      <c r="BJ1" s="33"/>
-      <c r="BK1" s="33"/>
-      <c r="BL1" s="33"/>
-      <c r="BM1" s="33"/>
-      <c r="BN1" s="33"/>
-      <c r="BO1" s="33"/>
-      <c r="BP1" s="33"/>
-      <c r="BQ1" s="33"/>
-      <c r="BR1" s="33"/>
-      <c r="BS1" s="33"/>
-      <c r="BT1" s="33"/>
-      <c r="BU1" s="33"/>
-      <c r="BV1" s="33"/>
-      <c r="BW1" s="33"/>
-      <c r="BX1" s="33"/>
-      <c r="BY1" s="33"/>
-      <c r="BZ1" s="33"/>
-      <c r="CA1" s="33"/>
-      <c r="CB1" s="33"/>
-      <c r="CC1" s="33"/>
-      <c r="CD1" s="33"/>
-      <c r="CE1" s="33"/>
-      <c r="CF1" s="33"/>
-      <c r="CG1" s="33"/>
-      <c r="CH1" s="33"/>
-      <c r="CI1" s="33"/>
-      <c r="CJ1" s="33"/>
-      <c r="CK1" s="33"/>
-      <c r="CL1" s="33"/>
-      <c r="CM1" s="33"/>
-      <c r="CN1" s="33"/>
-      <c r="CO1" s="33"/>
-      <c r="CP1" s="33"/>
-      <c r="CQ1" s="33"/>
-      <c r="CR1" s="33"/>
-      <c r="CS1" s="33"/>
-      <c r="CT1" s="33"/>
-      <c r="CU1" s="33"/>
-      <c r="CV1" s="33"/>
-      <c r="CW1" s="33"/>
-      <c r="CX1" s="33"/>
-      <c r="CY1" s="33"/>
-      <c r="CZ1" s="33"/>
-      <c r="DA1" s="33"/>
-      <c r="DB1" s="33"/>
-      <c r="DC1" s="33"/>
-      <c r="DD1" s="33"/>
-      <c r="DE1" s="33"/>
-      <c r="DF1" s="33"/>
-      <c r="DG1" s="33"/>
-      <c r="DH1" s="33"/>
-      <c r="DI1" s="33"/>
-      <c r="DJ1" s="33"/>
-      <c r="DK1" s="33"/>
-      <c r="DL1" s="33"/>
-      <c r="DM1" s="33"/>
-      <c r="DN1" s="33"/>
-      <c r="DO1" s="33"/>
-      <c r="DP1" s="33"/>
-      <c r="DQ1" s="33"/>
-      <c r="DR1" s="33"/>
-      <c r="DS1" s="33"/>
-      <c r="DT1" s="33"/>
-      <c r="DU1" s="33"/>
-      <c r="DV1" s="33"/>
-      <c r="DW1" s="33"/>
     </row>
-    <row r="2" spans="1:127" s="59" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
-        <v>245</v>
-      </c>
-      <c r="B2" s="67" t="str">
+    <row r="2" spans="1:54" s="57" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="65" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A2),"Klik")</f>
         <v>Klik</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="56" t="str">
+      <c r="D2" s="54" t="str">
         <f t="shared" ref="D2:D19" si="0">HYPERLINK(C2,"Klik")</f>
         <v>Klik</v>
       </c>
-      <c r="E2" s="57" t="s">
-        <v>265</v>
-      </c>
-      <c r="F2" s="58" t="str">
+      <c r="E2" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="56" t="str">
         <f>_xlfn.CONCAT("E:\KB-OPEN\PresentatiesOlaf\2022\Workshop OpenRefine en Wikimedia Commons - Olaf Janssen - WikiconNL_19112022\dataset\",E2)</f>
         <v>E:\KB-OPEN\PresentatiesOlaf\2022\Workshop OpenRefine en Wikimedia Commons - Olaf Janssen - WikiconNL_19112022\dataset\images/KONB16_533939704_1_X.JPG</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="55" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="56" t="str">
+      <c r="J2" s="54" t="str">
         <f t="shared" ref="J2:J19" si="1">HYPERLINK(I2,"Klik")</f>
         <v>Klik</v>
       </c>
-      <c r="K2" s="60" t="str">
+      <c r="K2" s="58" t="str">
         <f>_xlfn.CONCAT("KONB16:533939704"," - ",H2,"/18")</f>
         <v>KONB16:533939704 - 1/18</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="59" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="59" t="s">
+      <c r="N2" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="56" t="str">
+      <c r="O2" s="54" t="str">
         <f t="shared" ref="O2:O19" si="2">HYPERLINK(N2,"Klik")</f>
         <v>Klik</v>
       </c>
-      <c r="P2" s="59" t="s">
+      <c r="P2" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="56" t="str">
+      <c r="Q2" s="54" t="str">
         <f t="shared" ref="Q2:Q19" si="3">HYPERLINK(P2,"Klik")</f>
         <v>Klik</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="55" t="s">
+      <c r="R2" s="37"/>
+      <c r="S2" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="55" t="s">
+      <c r="T2" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="54" t="s">
+      <c r="U2" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="61" t="s">
+      <c r="V2" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="59" t="s">
+      <c r="W2" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="60" t="s">
+      <c r="X2" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="67" t="str">
+      <c r="Y2" s="65" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",X2),"Klik")</f>
         <v>Klik</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="59" t="s">
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="59" t="s">
+      <c r="AB2" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="AC2" s="59" t="s">
+      <c r="AC2" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="AD2" s="59" t="s">
+      <c r="AD2" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="AE2" s="59" t="s">
+      <c r="AE2" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="AF2" s="59" t="s">
+      <c r="AF2" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="AG2" s="59" t="s">
+      <c r="AG2" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="59" t="s">
+      <c r="AH2" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="AI2" s="59" t="s">
+      <c r="AI2" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="AK2" s="59" t="s">
+      <c r="AK2" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="AL2" s="59" t="s">
+      <c r="AL2" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="AM2" s="59" t="s">
+      <c r="AM2" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="AN2" s="59" t="s">
+      <c r="AN2" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="62" t="str">
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="60" t="str">
         <f>"
 =={{int:filedesc}}==
 {{Artwork
@@ -2613,161 +2522,161 @@
 {{PD-art|PD-old-70-1923}}
 [[Category:Nederlandsche havengezichten enz., 1780-1781 - KONB16:533939704]]</v>
       </c>
-      <c r="AQ2" s="63" t="s">
-        <v>283</v>
-      </c>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="59" t="s">
+      <c r="AQ2" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="AT2" s="64" t="s">
+      <c r="AT2" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="AU2" s="59" t="s">
+      <c r="AU2" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="AV2" s="64" t="s">
+      <c r="AV2" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="AW2" s="59" t="s">
+      <c r="AW2" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="AX2" s="64" t="s">
+      <c r="AX2" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" s="59" t="s">
+      <c r="AY2" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="AZ2" s="64" t="s">
+      <c r="AZ2" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="BA2" s="59" t="s">
+      <c r="BA2" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="BB2" s="64" t="s">
+      <c r="BB2" s="62" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:127" s="59" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3" s="67" t="str">
+    <row r="3" spans="1:54" s="57" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="65" t="str">
         <f t="shared" ref="B3:B19" si="4">HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",A3),"Klik")</f>
         <v>Klik</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="56" t="str">
+      <c r="D3" s="54" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
-      <c r="E3" s="65" t="s">
-        <v>266</v>
-      </c>
-      <c r="F3" s="58" t="str">
+      <c r="E3" s="63" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="56" t="str">
         <f t="shared" ref="F3:F19" si="5">_xlfn.CONCAT("E:\KB-OPEN\PresentatiesOlaf\2022\Workshop OpenRefine en Wikimedia Commons - Olaf Janssen - WikiconNL_19112022\dataset\",E3)</f>
         <v>E:\KB-OPEN\PresentatiesOlaf\2022\Workshop OpenRefine en Wikimedia Commons - Olaf Janssen - WikiconNL_19112022\dataset\images/KONB16_533939704_2_X.JPG</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="55" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="56" t="str">
+      <c r="J3" s="54" t="str">
         <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
-      <c r="K3" s="60" t="str">
+      <c r="K3" s="58" t="str">
         <f t="shared" ref="K3:K19" si="6">_xlfn.CONCAT("KONB16:533939704"," - ",H3,"/18")</f>
         <v>KONB16:533939704 - 2/18</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="59" t="s">
+      <c r="L3" s="37"/>
+      <c r="M3" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="59" t="s">
+      <c r="N3" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="56" t="str">
+      <c r="O3" s="54" t="str">
         <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
-      <c r="P3" s="59" t="s">
+      <c r="P3" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" s="56" t="str">
+      <c r="Q3" s="54" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="55" t="s">
+      <c r="R3" s="37"/>
+      <c r="S3" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="55" t="s">
+      <c r="T3" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="54" t="s">
+      <c r="U3" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="61" t="s">
+      <c r="V3" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="W3" s="59" t="s">
+      <c r="W3" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="X3" s="60" t="s">
+      <c r="X3" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="67" t="str">
+      <c r="Y3" s="65" t="str">
         <f t="shared" ref="Y3:Y19" si="7">HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",X3),"Klik")</f>
         <v>Klik</v>
       </c>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="59" t="s">
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="AB3" s="59" t="s">
+      <c r="AB3" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="AC3" s="59" t="s">
+      <c r="AC3" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="AD3" s="59" t="s">
+      <c r="AD3" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="AE3" s="59" t="s">
+      <c r="AE3" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="AF3" s="59" t="s">
+      <c r="AF3" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="AG3" s="59" t="s">
+      <c r="AG3" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="AH3" s="59" t="s">
+      <c r="AH3" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="AI3" s="59" t="s">
+      <c r="AI3" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="AK3" s="59" t="s">
+      <c r="AK3" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="AL3" s="66" t="s">
+      <c r="AL3" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="AM3" s="59" t="s">
+      <c r="AM3" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="AN3" s="59" t="s">
+      <c r="AN3" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="62" t="str">
+      <c r="AO3" s="37"/>
+      <c r="AP3" s="60" t="str">
         <f t="shared" ref="AP3:AP19" si="8">"
 =={{int:filedesc}}==
 {{Artwork
@@ -2831,161 +2740,161 @@
 {{PD-art|PD-old-70-1923}}
 [[Category:Nederlandsche havengezichten enz., 1780-1781 - KONB16:533939704]]</v>
       </c>
-      <c r="AQ3" s="63" t="s">
-        <v>284</v>
-      </c>
-      <c r="AR3" s="38"/>
-      <c r="AS3" s="59" t="s">
+      <c r="AQ3" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="AT3" s="64" t="s">
+      <c r="AT3" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="AU3" s="59" t="s">
+      <c r="AU3" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="AV3" s="64" t="s">
+      <c r="AV3" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="AW3" s="59" t="s">
+      <c r="AW3" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="AX3" s="64" t="s">
+      <c r="AX3" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AY3" s="59" t="s">
+      <c r="AY3" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="AZ3" s="64" t="s">
+      <c r="AZ3" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="BA3" s="59" t="s">
+      <c r="BA3" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="BB3" s="64" t="s">
+      <c r="BB3" s="62" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:127" s="59" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="B4" s="67" t="str">
+    <row r="4" spans="1:54" s="57" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="65" t="str">
         <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="56" t="str">
+      <c r="D4" s="54" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
-      <c r="E4" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="F4" s="58" t="str">
+      <c r="E4" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="56" t="str">
         <f t="shared" si="5"/>
         <v>E:\KB-OPEN\PresentatiesOlaf\2022\Workshop OpenRefine en Wikimedia Commons - Olaf Janssen - WikiconNL_19112022\dataset\images/KONB16_533939704_3_X.JPG</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="55" t="s">
+      <c r="G4" s="37"/>
+      <c r="H4" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="56" t="str">
+      <c r="J4" s="54" t="str">
         <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
-      <c r="K4" s="60" t="str">
+      <c r="K4" s="58" t="str">
         <f t="shared" si="6"/>
         <v>KONB16:533939704 - 3/18</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="59" t="s">
+      <c r="L4" s="37"/>
+      <c r="M4" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="N4" s="59" t="s">
+      <c r="N4" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="56" t="str">
+      <c r="O4" s="54" t="str">
         <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="Q4" s="56" t="str">
+      <c r="Q4" s="54" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
-      <c r="R4" s="38"/>
-      <c r="S4" s="55" t="s">
+      <c r="R4" s="37"/>
+      <c r="S4" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="55" t="s">
+      <c r="T4" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="U4" s="54" t="s">
+      <c r="U4" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="W4" s="59" t="s">
+      <c r="W4" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="X4" s="60" t="s">
+      <c r="X4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="67" t="str">
+      <c r="Y4" s="65" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="59" t="s">
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="AB4" s="59" t="s">
+      <c r="AB4" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="AC4" s="59" t="s">
+      <c r="AC4" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="AD4" s="59" t="s">
+      <c r="AD4" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="AE4" s="59" t="s">
+      <c r="AE4" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="AF4" s="59" t="s">
+      <c r="AF4" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="AG4" s="59" t="s">
+      <c r="AG4" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="AH4" s="59" t="s">
+      <c r="AH4" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="AI4" s="59" t="s">
+      <c r="AI4" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="AK4" s="59" t="s">
+      <c r="AK4" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="AL4" s="66" t="s">
+      <c r="AL4" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="AM4" s="59" t="s">
+      <c r="AM4" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="AN4" s="59" t="s">
+      <c r="AN4" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="62" t="str">
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="60" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
@@ -3019,161 +2928,161 @@
 {{PD-art|PD-old-70-1923}}
 [[Category:Nederlandsche havengezichten enz., 1780-1781 - KONB16:533939704]]</v>
       </c>
-      <c r="AQ4" s="63" t="s">
-        <v>285</v>
-      </c>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="59" t="s">
+      <c r="AQ4" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR4" s="37"/>
+      <c r="AS4" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="AT4" s="64" t="s">
+      <c r="AT4" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="AU4" s="59" t="s">
+      <c r="AU4" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="AV4" s="64" t="s">
+      <c r="AV4" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="AW4" s="59" t="s">
+      <c r="AW4" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="AX4" s="64" t="s">
+      <c r="AX4" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AY4" s="59" t="s">
+      <c r="AY4" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="AZ4" s="64" t="s">
+      <c r="AZ4" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="BA4" s="59" t="s">
+      <c r="BA4" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="BB4" s="64" t="s">
+      <c r="BB4" s="62" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:127" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
-        <v>247</v>
-      </c>
-      <c r="B5" s="5" t="str">
+    <row r="5" spans="1:54" s="57" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="65" t="str">
         <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="45" t="str">
+      <c r="D5" s="54" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
-      <c r="E5" s="69" t="s">
-        <v>268</v>
-      </c>
-      <c r="F5" s="70" t="str">
+      <c r="E5" s="63" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5" s="56" t="str">
         <f t="shared" si="5"/>
         <v>E:\KB-OPEN\PresentatiesOlaf\2022\Workshop OpenRefine en Wikimedia Commons - Olaf Janssen - WikiconNL_19112022\dataset\images/KONB16_533939704_4_X.JPG</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="36" t="s">
+      <c r="G5" s="37"/>
+      <c r="H5" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="45" t="str">
+      <c r="J5" s="54" t="str">
         <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
-      <c r="K5" s="25" t="str">
+      <c r="K5" s="58" t="str">
         <f t="shared" si="6"/>
         <v>KONB16:533939704 - 4/18</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39" t="s">
+      <c r="L5" s="37"/>
+      <c r="M5" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="O5" s="45" t="str">
+      <c r="O5" s="54" t="str">
         <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="Q5" s="45" t="str">
+      <c r="Q5" s="54" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
-      <c r="R5" s="38"/>
-      <c r="S5" s="36" t="s">
+      <c r="R5" s="37"/>
+      <c r="S5" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="36" t="s">
+      <c r="T5" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="U5" s="35" t="s">
+      <c r="U5" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="V5" s="40" t="s">
+      <c r="V5" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="W5" s="39" t="s">
+      <c r="W5" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="X5" s="25" t="s">
+      <c r="X5" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="Y5" s="5" t="str">
+      <c r="Y5" s="65" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="39" t="s">
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="39" t="s">
+      <c r="AB5" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="AC5" s="39" t="s">
+      <c r="AC5" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="AD5" s="39" t="s">
+      <c r="AD5" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="AE5" s="39" t="s">
+      <c r="AE5" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="AF5" s="39" t="s">
+      <c r="AF5" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="AG5" s="39" t="s">
+      <c r="AG5" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="AH5" s="39" t="s">
+      <c r="AH5" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="AI5" s="39" t="s">
+      <c r="AI5" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="AK5" s="39" t="s">
+      <c r="AK5" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="AL5" s="39" t="s">
+      <c r="AL5" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="AM5" s="39" t="s">
+      <c r="AM5" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="AN5" s="39" t="s">
+      <c r="AN5" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="41" t="str">
+      <c r="AO5" s="37"/>
+      <c r="AP5" s="60" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
@@ -3207,154 +3116,153 @@
 {{PD-art|PD-old-70-1923}}
 [[Category:Nederlandsche havengezichten enz., 1780-1781 - KONB16:533939704]]</v>
       </c>
-      <c r="AQ5" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="39" t="s">
+      <c r="AQ5" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="AR5" s="37"/>
+      <c r="AS5" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="AT5" s="42" t="s">
+      <c r="AT5" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="AU5" s="39" t="s">
+      <c r="AU5" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="AV5" s="42" t="s">
+      <c r="AV5" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="AW5" s="39" t="s">
+      <c r="AW5" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="AX5" s="42" t="s">
+      <c r="AX5" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AY5" s="39" t="s">
+      <c r="AY5" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="AZ5" s="42" t="s">
+      <c r="AZ5" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="BA5" s="39" t="s">
+      <c r="BA5" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="BB5" s="42" t="s">
+      <c r="BB5" s="62" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:127" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" s="5" t="str">
+    <row r="6" spans="1:54" s="57" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="66" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="65" t="str">
         <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="45" t="str">
+      <c r="D6" s="54" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
-      <c r="E6" s="52" t="s">
-        <v>269</v>
-      </c>
-      <c r="F6" s="51" t="str">
+      <c r="E6" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" s="56" t="str">
         <f t="shared" si="5"/>
         <v>E:\KB-OPEN\PresentatiesOlaf\2022\Workshop OpenRefine en Wikimedia Commons - Olaf Janssen - WikiconNL_19112022\dataset\images/KONB16_533939704_5_X.JPG</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="36" t="s">
+      <c r="G6" s="37"/>
+      <c r="H6" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="45" t="str">
+      <c r="J6" s="54" t="str">
         <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
-      <c r="K6" s="25" t="str">
+      <c r="K6" s="58" t="str">
         <f t="shared" si="6"/>
         <v>KONB16:533939704 - 5/18</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39" t="s">
+      <c r="L6" s="37"/>
+      <c r="M6" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="O6" s="45" t="str">
+      <c r="O6" s="54" t="str">
         <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
-      <c r="P6" s="39" t="s">
+      <c r="P6" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="Q6" s="45" t="str">
+      <c r="Q6" s="54" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
-      <c r="R6" s="38"/>
-      <c r="S6" s="36" t="s">
+      <c r="R6" s="37"/>
+      <c r="S6" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="36" t="s">
+      <c r="T6" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="U6" s="35" t="s">
+      <c r="U6" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="V6" s="40" t="s">
+      <c r="V6" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="W6" s="39" t="s">
+      <c r="W6" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="X6" s="25" t="s">
+      <c r="X6" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="Y6" s="5" t="str">
+      <c r="Y6" s="65" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="39" t="s">
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="AB6" s="37" t="s">
+      <c r="AB6" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="AC6" s="39" t="s">
+      <c r="AC6" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="AD6" s="37" t="s">
+      <c r="AD6" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="AE6" s="39" t="s">
+      <c r="AE6" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="AF6" s="37" t="s">
+      <c r="AF6" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="AG6" s="39" t="s">
+      <c r="AG6" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="AH6" s="37" t="s">
+      <c r="AH6" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="AI6" s="71" t="s">
+      <c r="AI6" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="AJ6" s="51" t="s">
+      <c r="AJ6" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="AL6" s="53"/>
-      <c r="AN6" s="37"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="41" t="str">
+      <c r="AL6" s="64"/>
+      <c r="AO6" s="37"/>
+      <c r="AP6" s="60" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
@@ -3388,71 +3296,71 @@
 {{PD-art|PD-old-70-1923}}
 [[Category:Nederlandsche havengezichten enz., 1780-1781 - KONB16:533939704]]</v>
       </c>
-      <c r="AQ6" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="39" t="s">
+      <c r="AQ6" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="AR6" s="37"/>
+      <c r="AS6" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="AT6" s="42" t="s">
+      <c r="AT6" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="AU6" s="39" t="s">
+      <c r="AU6" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="AV6" s="42" t="s">
+      <c r="AV6" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="AW6" s="39" t="s">
+      <c r="AW6" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="AX6" s="42" t="s">
+      <c r="AX6" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AY6" s="39" t="s">
+      <c r="AY6" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="AZ6" s="42" t="s">
+      <c r="AZ6" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="BA6" s="39" t="s">
+      <c r="BA6" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="BB6" s="42" t="s">
+      <c r="BB6" s="62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:127" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>253</v>
+    <row r="7" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
+        <v>288</v>
       </c>
       <c r="B7" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="45" t="str">
+      <c r="D7" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>270</v>
-      </c>
-      <c r="F7" s="51" t="str">
+      <c r="E7" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="49" t="str">
         <f t="shared" si="5"/>
         <v>E:\KB-OPEN\PresentatiesOlaf\2022\Workshop OpenRefine en Wikimedia Commons - Olaf Janssen - WikiconNL_19112022\dataset\images/KONB16_533939704_6_X.JPG</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="36" t="s">
+      <c r="G7" s="37"/>
+      <c r="H7" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="45" t="str">
+      <c r="J7" s="43" t="str">
         <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
@@ -3460,38 +3368,38 @@
         <f t="shared" si="6"/>
         <v>KONB16:533939704 - 6/18</v>
       </c>
-      <c r="L7" s="38"/>
-      <c r="M7" s="39" t="s">
+      <c r="L7" s="37"/>
+      <c r="M7" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="O7" s="45" t="str">
+      <c r="O7" s="43" t="str">
         <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
-      <c r="P7" s="39" t="s">
+      <c r="P7" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="Q7" s="45" t="str">
+      <c r="Q7" s="43" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
-      <c r="R7" s="38"/>
-      <c r="S7" s="36" t="s">
+      <c r="R7" s="37"/>
+      <c r="S7" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="T7" s="36" t="s">
+      <c r="T7" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U7" s="35" t="s">
+      <c r="U7" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="V7" s="40" t="s">
+      <c r="V7" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="W7" s="39" t="s">
+      <c r="W7" s="38" t="s">
         <v>107</v>
       </c>
       <c r="X7" s="25" t="s">
@@ -3501,48 +3409,48 @@
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="39" t="s">
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AB7" s="37" t="s">
+      <c r="AB7" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="AC7" s="39" t="s">
+      <c r="AC7" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="AD7" s="37" t="s">
+      <c r="AD7" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="AE7" s="39" t="s">
+      <c r="AE7" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AF7" s="37" t="s">
+      <c r="AF7" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="AG7" s="39" t="s">
+      <c r="AG7" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AH7" s="37" t="s">
+      <c r="AH7" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="AI7" s="39" t="s">
+      <c r="AI7" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AK7" s="39" t="s">
+      <c r="AK7" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="AL7" s="53" t="s">
+      <c r="AL7" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="AM7" s="39" t="s">
+      <c r="AM7" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="AN7" s="37" t="s">
+      <c r="AN7" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="41" t="str">
+      <c r="AO7" s="37"/>
+      <c r="AP7" s="40" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
@@ -3576,71 +3484,71 @@
 {{PD-art|PD-old-70-1923}}
 [[Category:Nederlandsche havengezichten enz., 1780-1781 - KONB16:533939704]]</v>
       </c>
-      <c r="AQ7" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="AR7" s="38"/>
-      <c r="AS7" s="39" t="s">
+      <c r="AQ7" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="AR7" s="37"/>
+      <c r="AS7" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="AT7" s="42" t="s">
+      <c r="AT7" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AU7" s="39" t="s">
+      <c r="AU7" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="AV7" s="42" t="s">
+      <c r="AV7" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="AW7" s="39" t="s">
+      <c r="AW7" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AX7" s="42" t="s">
+      <c r="AX7" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AY7" s="39" t="s">
+      <c r="AY7" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="AZ7" s="42" t="s">
+      <c r="AZ7" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="BA7" s="39" t="s">
+      <c r="BA7" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="BB7" s="42" t="s">
+      <c r="BB7" s="41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:127" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>249</v>
+    <row r="8" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
+        <v>289</v>
       </c>
       <c r="B8" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="45" t="str">
+      <c r="D8" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
-      <c r="E8" s="52" t="s">
-        <v>271</v>
-      </c>
-      <c r="F8" s="51" t="str">
+      <c r="E8" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="49" t="str">
         <f t="shared" si="5"/>
         <v>E:\KB-OPEN\PresentatiesOlaf\2022\Workshop OpenRefine en Wikimedia Commons - Olaf Janssen - WikiconNL_19112022\dataset\images/KONB16_533939704_7_X.JPG</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="36" t="s">
+      <c r="G8" s="37"/>
+      <c r="H8" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="45" t="str">
+      <c r="J8" s="43" t="str">
         <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
@@ -3648,38 +3556,38 @@
         <f t="shared" si="6"/>
         <v>KONB16:533939704 - 7/18</v>
       </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39" t="s">
+      <c r="L8" s="37"/>
+      <c r="M8" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="O8" s="45" t="str">
+      <c r="O8" s="43" t="str">
         <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
-      <c r="P8" s="39" t="s">
+      <c r="P8" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="Q8" s="45" t="str">
+      <c r="Q8" s="43" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
-      <c r="R8" s="38"/>
-      <c r="S8" s="36" t="s">
+      <c r="R8" s="37"/>
+      <c r="S8" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="T8" s="36" t="s">
+      <c r="T8" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="35" t="s">
+      <c r="U8" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="V8" s="40" t="s">
+      <c r="V8" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="W8" s="39" t="s">
+      <c r="W8" s="38" t="s">
         <v>116</v>
       </c>
       <c r="X8" s="25" t="s">
@@ -3689,48 +3597,48 @@
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="39" t="s">
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AB8" s="37" t="s">
+      <c r="AB8" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="AC8" s="39" t="s">
+      <c r="AC8" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="AD8" s="37" t="s">
+      <c r="AD8" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="AE8" s="39" t="s">
+      <c r="AE8" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AF8" s="37" t="s">
+      <c r="AF8" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="AG8" s="39" t="s">
+      <c r="AG8" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AH8" s="37" t="s">
+      <c r="AH8" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="AI8" s="39" t="s">
+      <c r="AI8" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AK8" s="39" t="s">
+      <c r="AK8" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="AL8" s="53" t="s">
+      <c r="AL8" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="AM8" s="39" t="s">
+      <c r="AM8" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="AN8" s="37" t="s">
+      <c r="AN8" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AO8" s="38"/>
-      <c r="AP8" s="41" t="str">
+      <c r="AO8" s="37"/>
+      <c r="AP8" s="40" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
@@ -3764,71 +3672,71 @@
 {{PD-art|PD-old-70-1923}}
 [[Category:Nederlandsche havengezichten enz., 1780-1781 - KONB16:533939704]]</v>
       </c>
-      <c r="AQ8" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="AR8" s="38"/>
-      <c r="AS8" s="39" t="s">
+      <c r="AQ8" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="AR8" s="37"/>
+      <c r="AS8" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="AT8" s="42" t="s">
+      <c r="AT8" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AU8" s="39" t="s">
+      <c r="AU8" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="AV8" s="42" t="s">
+      <c r="AV8" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="AW8" s="39" t="s">
+      <c r="AW8" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AX8" s="42" t="s">
+      <c r="AX8" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AY8" s="39" t="s">
+      <c r="AY8" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="AZ8" s="42" t="s">
+      <c r="AZ8" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="BA8" s="39" t="s">
+      <c r="BA8" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="BB8" s="42" t="s">
+      <c r="BB8" s="41" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:127" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>261</v>
+    <row r="9" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
+        <v>290</v>
       </c>
       <c r="B9" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="45" t="str">
+      <c r="D9" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
-      <c r="E9" s="52" t="s">
-        <v>272</v>
-      </c>
-      <c r="F9" s="51" t="str">
+      <c r="E9" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" s="49" t="str">
         <f t="shared" si="5"/>
         <v>E:\KB-OPEN\PresentatiesOlaf\2022\Workshop OpenRefine en Wikimedia Commons - Olaf Janssen - WikiconNL_19112022\dataset\images/KONB16_533939704_8_X.JPG</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="36" t="s">
+      <c r="G9" s="37"/>
+      <c r="H9" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="45" t="str">
+      <c r="J9" s="43" t="str">
         <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
@@ -3836,38 +3744,38 @@
         <f t="shared" si="6"/>
         <v>KONB16:533939704 - 8/18</v>
       </c>
-      <c r="L9" s="38"/>
-      <c r="M9" s="39" t="s">
+      <c r="L9" s="37"/>
+      <c r="M9" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="N9" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="O9" s="45" t="str">
+      <c r="O9" s="43" t="str">
         <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
-      <c r="P9" s="39" t="s">
+      <c r="P9" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="Q9" s="45" t="str">
+      <c r="Q9" s="43" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
-      <c r="R9" s="38"/>
-      <c r="S9" s="36" t="s">
+      <c r="R9" s="37"/>
+      <c r="S9" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="T9" s="36" t="s">
+      <c r="T9" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U9" s="35" t="s">
+      <c r="U9" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="V9" s="40" t="s">
+      <c r="V9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="W9" s="39" t="s">
+      <c r="W9" s="38" t="s">
         <v>125</v>
       </c>
       <c r="X9" s="25" t="s">
@@ -3877,48 +3785,48 @@
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="39" t="s">
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AB9" s="37" t="s">
+      <c r="AB9" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="AC9" s="39" t="s">
+      <c r="AC9" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="AD9" s="37" t="s">
+      <c r="AD9" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="AE9" s="39" t="s">
+      <c r="AE9" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AF9" s="37" t="s">
+      <c r="AF9" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="AG9" s="39" t="s">
+      <c r="AG9" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AH9" s="37" t="s">
+      <c r="AH9" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="AI9" s="39" t="s">
+      <c r="AI9" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AK9" s="39" t="s">
+      <c r="AK9" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="AL9" s="53" t="s">
+      <c r="AL9" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="AM9" s="39" t="s">
+      <c r="AM9" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="AN9" s="37" t="s">
+      <c r="AN9" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="41" t="str">
+      <c r="AO9" s="37"/>
+      <c r="AP9" s="40" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
@@ -3952,71 +3860,71 @@
 {{PD-art|PD-old-70-1923}}
 [[Category:Nederlandsche havengezichten enz., 1780-1781 - KONB16:533939704]]</v>
       </c>
-      <c r="AQ9" s="50" t="s">
-        <v>290</v>
-      </c>
-      <c r="AR9" s="38"/>
-      <c r="AS9" s="39" t="s">
+      <c r="AQ9" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="AR9" s="37"/>
+      <c r="AS9" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="AT9" s="42" t="s">
+      <c r="AT9" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AU9" s="39" t="s">
+      <c r="AU9" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="AV9" s="42" t="s">
+      <c r="AV9" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="AW9" s="39" t="s">
+      <c r="AW9" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AX9" s="42" t="s">
+      <c r="AX9" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AY9" s="39" t="s">
+      <c r="AY9" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="AZ9" s="42" t="s">
+      <c r="AZ9" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="BA9" s="39" t="s">
+      <c r="BA9" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="BB9" s="42" t="s">
+      <c r="BB9" s="41" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:127" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>262</v>
+    <row r="10" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
+        <v>291</v>
       </c>
       <c r="B10" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="45" t="str">
+      <c r="D10" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
-      <c r="E10" s="52" t="s">
-        <v>273</v>
-      </c>
-      <c r="F10" s="51" t="str">
+      <c r="E10" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" s="49" t="str">
         <f t="shared" si="5"/>
         <v>E:\KB-OPEN\PresentatiesOlaf\2022\Workshop OpenRefine en Wikimedia Commons - Olaf Janssen - WikiconNL_19112022\dataset\images/KONB16_533939704_9_X.JPG</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="36" t="s">
+      <c r="G10" s="37"/>
+      <c r="H10" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="45" t="str">
+      <c r="J10" s="43" t="str">
         <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
@@ -4024,38 +3932,38 @@
         <f t="shared" si="6"/>
         <v>KONB16:533939704 - 9/18</v>
       </c>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39" t="s">
+      <c r="L10" s="37"/>
+      <c r="M10" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="O10" s="45" t="str">
+      <c r="O10" s="43" t="str">
         <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
-      <c r="P10" s="39" t="s">
+      <c r="P10" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="Q10" s="45" t="str">
+      <c r="Q10" s="43" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
-      <c r="R10" s="38"/>
-      <c r="S10" s="36" t="s">
+      <c r="R10" s="37"/>
+      <c r="S10" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="T10" s="36" t="s">
+      <c r="T10" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="35" t="s">
+      <c r="U10" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="V10" s="40" t="s">
+      <c r="V10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="W10" s="39" t="s">
+      <c r="W10" s="38" t="s">
         <v>138</v>
       </c>
       <c r="X10" s="25" t="s">
@@ -4065,48 +3973,48 @@
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="39" t="s">
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AB10" s="37" t="s">
+      <c r="AB10" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="AC10" s="39" t="s">
+      <c r="AC10" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="AD10" s="37" t="s">
+      <c r="AD10" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="AE10" s="39" t="s">
+      <c r="AE10" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AF10" s="37" t="s">
+      <c r="AF10" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="AG10" s="39" t="s">
+      <c r="AG10" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AH10" s="37" t="s">
+      <c r="AH10" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="AI10" s="39" t="s">
+      <c r="AI10" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AK10" s="39" t="s">
+      <c r="AK10" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="AL10" s="53" t="s">
+      <c r="AL10" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="AM10" s="39" t="s">
+      <c r="AM10" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="AN10" s="37" t="s">
+      <c r="AN10" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AO10" s="38"/>
-      <c r="AP10" s="41" t="str">
+      <c r="AO10" s="37"/>
+      <c r="AP10" s="40" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
@@ -4140,73 +4048,71 @@
 {{PD-art|PD-old-70-1923}}
 [[Category:Nederlandsche havengezichten enz., 1780-1781 - KONB16:533939704]]</v>
       </c>
-      <c r="AQ10" s="50" t="s">
-        <v>291</v>
-      </c>
-      <c r="AR10" s="38"/>
-      <c r="AS10" s="39" t="s">
+      <c r="AQ10" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="AR10" s="37"/>
+      <c r="AS10" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="AT10" s="42" t="s">
+      <c r="AT10" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AU10" s="39" t="s">
+      <c r="AU10" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="AV10" s="42" t="s">
+      <c r="AV10" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="AW10" s="39" t="s">
+      <c r="AW10" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AX10" s="42" t="s">
+      <c r="AX10" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AY10" s="39" t="s">
+      <c r="AY10" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="AZ10" s="42" t="s">
+      <c r="AZ10" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="BA10" s="39" t="s">
+      <c r="BA10" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="BB10" s="42" t="s">
+      <c r="BB10" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="DP10" s="43"/>
-      <c r="DQ10" s="43"/>
     </row>
-    <row r="11" spans="1:127" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>257</v>
+    <row r="11" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
+        <v>292</v>
       </c>
       <c r="B11" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="45" t="str">
+      <c r="D11" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
-      <c r="E11" s="52" t="s">
-        <v>274</v>
-      </c>
-      <c r="F11" s="51" t="str">
+      <c r="E11" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="F11" s="49" t="str">
         <f t="shared" si="5"/>
         <v>E:\KB-OPEN\PresentatiesOlaf\2022\Workshop OpenRefine en Wikimedia Commons - Olaf Janssen - WikiconNL_19112022\dataset\images/KONB16_533939704_10_X.JPG</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="36" t="s">
+      <c r="G11" s="37"/>
+      <c r="H11" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="45" t="str">
+      <c r="J11" s="43" t="str">
         <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
@@ -4214,38 +4120,38 @@
         <f t="shared" si="6"/>
         <v>KONB16:533939704 - 10/18</v>
       </c>
-      <c r="L11" s="38"/>
-      <c r="M11" s="39" t="s">
+      <c r="L11" s="37"/>
+      <c r="M11" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="N11" s="39" t="s">
+      <c r="N11" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="O11" s="45" t="str">
+      <c r="O11" s="43" t="str">
         <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
-      <c r="P11" s="39" t="s">
+      <c r="P11" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="Q11" s="45" t="str">
+      <c r="Q11" s="43" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
-      <c r="R11" s="38"/>
-      <c r="S11" s="36" t="s">
+      <c r="R11" s="37"/>
+      <c r="S11" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="T11" s="36" t="s">
+      <c r="T11" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U11" s="35" t="s">
+      <c r="U11" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="V11" s="40" t="s">
+      <c r="V11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="W11" s="39" t="s">
+      <c r="W11" s="38" t="s">
         <v>147</v>
       </c>
       <c r="X11" s="25" t="s">
@@ -4255,48 +4161,48 @@
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="39" t="s">
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AB11" s="37" t="s">
+      <c r="AB11" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="AC11" s="39" t="s">
+      <c r="AC11" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="AD11" s="37" t="s">
+      <c r="AD11" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="AE11" s="39" t="s">
+      <c r="AE11" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AF11" s="37" t="s">
+      <c r="AF11" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="AG11" s="39" t="s">
+      <c r="AG11" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AH11" s="37" t="s">
+      <c r="AH11" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="AI11" s="39" t="s">
+      <c r="AI11" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AK11" s="39" t="s">
+      <c r="AK11" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="AL11" s="53" t="s">
+      <c r="AL11" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="AM11" s="39" t="s">
+      <c r="AM11" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="AN11" s="37" t="s">
+      <c r="AN11" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AO11" s="38"/>
-      <c r="AP11" s="41" t="str">
+      <c r="AO11" s="37"/>
+      <c r="AP11" s="40" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
@@ -4330,71 +4236,71 @@
 {{PD-art|PD-old-70-1923}}
 [[Category:Nederlandsche havengezichten enz., 1780-1781 - KONB16:533939704]]</v>
       </c>
-      <c r="AQ11" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="AR11" s="38"/>
-      <c r="AS11" s="39" t="s">
+      <c r="AQ11" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR11" s="37"/>
+      <c r="AS11" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="AT11" s="42" t="s">
+      <c r="AT11" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AU11" s="39" t="s">
+      <c r="AU11" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="AV11" s="42" t="s">
+      <c r="AV11" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="AW11" s="39" t="s">
+      <c r="AW11" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AX11" s="42" t="s">
+      <c r="AX11" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AY11" s="39" t="s">
+      <c r="AY11" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="AZ11" s="42" t="s">
+      <c r="AZ11" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="BA11" s="39" t="s">
+      <c r="BA11" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="BB11" s="42" t="s">
+      <c r="BB11" s="41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:127" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>252</v>
+    <row r="12" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
+        <v>293</v>
       </c>
       <c r="B12" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="45" t="str">
+      <c r="D12" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
-      <c r="E12" s="52" t="s">
-        <v>275</v>
-      </c>
-      <c r="F12" s="51" t="str">
+      <c r="E12" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="F12" s="49" t="str">
         <f t="shared" si="5"/>
         <v>E:\KB-OPEN\PresentatiesOlaf\2022\Workshop OpenRefine en Wikimedia Commons - Olaf Janssen - WikiconNL_19112022\dataset\images/KONB16_533939704_11_X.JPG</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="36" t="s">
+      <c r="G12" s="37"/>
+      <c r="H12" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="45" t="str">
+      <c r="J12" s="43" t="str">
         <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
@@ -4402,38 +4308,38 @@
         <f t="shared" si="6"/>
         <v>KONB16:533939704 - 11/18</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39" t="s">
+      <c r="L12" s="37"/>
+      <c r="M12" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="N12" s="39" t="s">
+      <c r="N12" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="O12" s="45" t="str">
+      <c r="O12" s="43" t="str">
         <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
-      <c r="P12" s="39" t="s">
+      <c r="P12" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="Q12" s="45" t="str">
+      <c r="Q12" s="43" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
-      <c r="R12" s="38"/>
-      <c r="S12" s="36" t="s">
+      <c r="R12" s="37"/>
+      <c r="S12" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="T12" s="36" t="s">
+      <c r="T12" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U12" s="35" t="s">
+      <c r="U12" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="V12" s="40" t="s">
+      <c r="V12" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="W12" s="39" t="s">
+      <c r="W12" s="38" t="s">
         <v>156</v>
       </c>
       <c r="X12" s="25" t="s">
@@ -4443,48 +4349,48 @@
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="39" t="s">
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AB12" s="37" t="s">
+      <c r="AB12" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="AC12" s="39" t="s">
+      <c r="AC12" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="AD12" s="37" t="s">
+      <c r="AD12" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="AE12" s="39" t="s">
+      <c r="AE12" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AF12" s="37" t="s">
+      <c r="AF12" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="AG12" s="39" t="s">
+      <c r="AG12" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AH12" s="37" t="s">
+      <c r="AH12" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="AI12" s="39" t="s">
+      <c r="AI12" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AK12" s="39" t="s">
+      <c r="AK12" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="AL12" s="53" t="s">
+      <c r="AL12" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="AM12" s="39" t="s">
+      <c r="AM12" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="AN12" s="37" t="s">
+      <c r="AN12" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="41" t="str">
+      <c r="AO12" s="37"/>
+      <c r="AP12" s="40" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
@@ -4518,71 +4424,71 @@
 {{PD-art|PD-old-70-1923}}
 [[Category:Nederlandsche havengezichten enz., 1780-1781 - KONB16:533939704]]</v>
       </c>
-      <c r="AQ12" s="50" t="s">
-        <v>298</v>
-      </c>
-      <c r="AR12" s="38"/>
-      <c r="AS12" s="39" t="s">
+      <c r="AQ12" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="AR12" s="37"/>
+      <c r="AS12" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="AT12" s="42" t="s">
+      <c r="AT12" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AU12" s="39" t="s">
+      <c r="AU12" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="AV12" s="42" t="s">
+      <c r="AV12" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="AW12" s="39" t="s">
+      <c r="AW12" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AX12" s="42" t="s">
+      <c r="AX12" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AY12" s="39" t="s">
+      <c r="AY12" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="AZ12" s="42" t="s">
+      <c r="AZ12" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="BA12" s="39" t="s">
+      <c r="BA12" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="BB12" s="42" t="s">
+      <c r="BB12" s="41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:127" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>255</v>
+    <row r="13" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
+        <v>294</v>
       </c>
       <c r="B13" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="45" t="str">
+      <c r="D13" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
-      <c r="E13" s="52" t="s">
-        <v>276</v>
-      </c>
-      <c r="F13" s="51" t="str">
+      <c r="E13" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="F13" s="49" t="str">
         <f t="shared" si="5"/>
         <v>E:\KB-OPEN\PresentatiesOlaf\2022\Workshop OpenRefine en Wikimedia Commons - Olaf Janssen - WikiconNL_19112022\dataset\images/KONB16_533939704_12_X.JPG</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="36" t="s">
+      <c r="G13" s="37"/>
+      <c r="H13" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="45" t="str">
+      <c r="J13" s="43" t="str">
         <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
@@ -4590,38 +4496,38 @@
         <f t="shared" si="6"/>
         <v>KONB16:533939704 - 12/18</v>
       </c>
-      <c r="L13" s="38"/>
-      <c r="M13" s="39" t="s">
+      <c r="L13" s="37"/>
+      <c r="M13" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="N13" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="O13" s="45" t="str">
+      <c r="O13" s="43" t="str">
         <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
-      <c r="P13" s="39" t="s">
+      <c r="P13" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="Q13" s="45" t="str">
+      <c r="Q13" s="43" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
-      <c r="R13" s="38"/>
-      <c r="S13" s="36" t="s">
+      <c r="R13" s="37"/>
+      <c r="S13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="T13" s="36" t="s">
+      <c r="T13" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U13" s="35" t="s">
+      <c r="U13" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="V13" s="40" t="s">
+      <c r="V13" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="W13" s="39" t="s">
+      <c r="W13" s="38" t="s">
         <v>165</v>
       </c>
       <c r="X13" s="25" t="s">
@@ -4631,48 +4537,48 @@
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="39" t="s">
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AB13" s="37" t="s">
+      <c r="AB13" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="AC13" s="39" t="s">
+      <c r="AC13" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="AD13" s="37" t="s">
+      <c r="AD13" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="AE13" s="39" t="s">
+      <c r="AE13" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AF13" s="37" t="s">
+      <c r="AF13" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="AG13" s="39" t="s">
+      <c r="AG13" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AH13" s="37" t="s">
+      <c r="AH13" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="AI13" s="39" t="s">
+      <c r="AI13" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AK13" s="39" t="s">
+      <c r="AK13" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="AL13" s="53" t="s">
+      <c r="AL13" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="AM13" s="39" t="s">
+      <c r="AM13" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="AN13" s="37" t="s">
+      <c r="AN13" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AO13" s="38"/>
-      <c r="AP13" s="41" t="str">
+      <c r="AO13" s="37"/>
+      <c r="AP13" s="40" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
@@ -4706,71 +4612,71 @@
 {{PD-art|PD-old-70-1923}}
 [[Category:Nederlandsche havengezichten enz., 1780-1781 - KONB16:533939704]]</v>
       </c>
-      <c r="AQ13" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="AR13" s="38"/>
-      <c r="AS13" s="39" t="s">
+      <c r="AQ13" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR13" s="37"/>
+      <c r="AS13" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="AT13" s="42" t="s">
+      <c r="AT13" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AU13" s="39" t="s">
+      <c r="AU13" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="AV13" s="42" t="s">
+      <c r="AV13" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="AW13" s="39" t="s">
+      <c r="AW13" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AX13" s="42" t="s">
+      <c r="AX13" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AY13" s="39" t="s">
+      <c r="AY13" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="AZ13" s="42" t="s">
+      <c r="AZ13" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="BA13" s="39" t="s">
+      <c r="BA13" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="BB13" s="42" t="s">
+      <c r="BB13" s="41" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:127" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>256</v>
+    <row r="14" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
+        <v>295</v>
       </c>
       <c r="B14" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="45" t="str">
+      <c r="D14" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
-      <c r="E14" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="F14" s="51" t="str">
+      <c r="E14" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" s="49" t="str">
         <f t="shared" si="5"/>
         <v>E:\KB-OPEN\PresentatiesOlaf\2022\Workshop OpenRefine en Wikimedia Commons - Olaf Janssen - WikiconNL_19112022\dataset\images/KONB16_533939704_13_X.JPG</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="36" t="s">
+      <c r="G14" s="37"/>
+      <c r="H14" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="45" t="str">
+      <c r="J14" s="43" t="str">
         <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
@@ -4778,38 +4684,38 @@
         <f t="shared" si="6"/>
         <v>KONB16:533939704 - 13/18</v>
       </c>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39" t="s">
+      <c r="L14" s="37"/>
+      <c r="M14" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="N14" s="39" t="s">
+      <c r="N14" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="O14" s="45" t="str">
+      <c r="O14" s="43" t="str">
         <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
-      <c r="P14" s="39" t="s">
+      <c r="P14" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="Q14" s="45" t="str">
+      <c r="Q14" s="43" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
-      <c r="R14" s="38"/>
-      <c r="S14" s="36" t="s">
+      <c r="R14" s="37"/>
+      <c r="S14" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="T14" s="36" t="s">
+      <c r="T14" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U14" s="35" t="s">
+      <c r="U14" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="V14" s="40" t="s">
+      <c r="V14" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="W14" s="39" t="s">
+      <c r="W14" s="38" t="s">
         <v>176</v>
       </c>
       <c r="X14" s="25" t="s">
@@ -4819,43 +4725,43 @@
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="39" t="s">
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AB14" s="37" t="s">
+      <c r="AB14" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="AC14" s="39" t="s">
+      <c r="AC14" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="AD14" s="37" t="s">
+      <c r="AD14" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="AE14" s="39" t="s">
+      <c r="AE14" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AF14" s="37" t="s">
+      <c r="AF14" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="AG14" s="39" t="s">
+      <c r="AG14" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AH14" s="37" t="s">
+      <c r="AH14" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="AI14" s="39" t="s">
+      <c r="AI14" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AK14" s="39" t="s">
+      <c r="AK14" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="AL14" s="53" t="s">
+      <c r="AL14" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="AN14" s="37"/>
-      <c r="AO14" s="38"/>
-      <c r="AP14" s="41" t="str">
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="37"/>
+      <c r="AP14" s="40" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
@@ -4889,71 +4795,71 @@
 {{PD-art|PD-old-70-1923}}
 [[Category:Nederlandsche havengezichten enz., 1780-1781 - KONB16:533939704]]</v>
       </c>
-      <c r="AQ14" s="50" t="s">
-        <v>293</v>
-      </c>
-      <c r="AR14" s="38"/>
-      <c r="AS14" s="39" t="s">
+      <c r="AQ14" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="AR14" s="37"/>
+      <c r="AS14" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="AT14" s="42" t="s">
+      <c r="AT14" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AU14" s="39" t="s">
+      <c r="AU14" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="AV14" s="42" t="s">
+      <c r="AV14" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="AW14" s="39" t="s">
+      <c r="AW14" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AX14" s="42" t="s">
+      <c r="AX14" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AY14" s="39" t="s">
+      <c r="AY14" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="AZ14" s="42" t="s">
+      <c r="AZ14" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="BA14" s="39" t="s">
+      <c r="BA14" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="BB14" s="42" t="s">
+      <c r="BB14" s="41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:127" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>251</v>
+    <row r="15" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
+        <v>296</v>
       </c>
       <c r="B15" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="D15" s="45" t="str">
+      <c r="D15" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
-      <c r="E15" s="52" t="s">
-        <v>278</v>
-      </c>
-      <c r="F15" s="51" t="str">
+      <c r="E15" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="F15" s="49" t="str">
         <f t="shared" si="5"/>
         <v>E:\KB-OPEN\PresentatiesOlaf\2022\Workshop OpenRefine en Wikimedia Commons - Olaf Janssen - WikiconNL_19112022\dataset\images/KONB16_533939704_14_X.JPG</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="36" t="s">
+      <c r="G15" s="37"/>
+      <c r="H15" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="45" t="str">
+      <c r="J15" s="43" t="str">
         <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
@@ -4961,38 +4867,38 @@
         <f t="shared" si="6"/>
         <v>KONB16:533939704 - 14/18</v>
       </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="39" t="s">
+      <c r="L15" s="37"/>
+      <c r="M15" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="N15" s="39" t="s">
+      <c r="N15" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="O15" s="45" t="str">
+      <c r="O15" s="43" t="str">
         <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
-      <c r="P15" s="39" t="s">
+      <c r="P15" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="Q15" s="45" t="str">
+      <c r="Q15" s="43" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
-      <c r="R15" s="38"/>
-      <c r="S15" s="36" t="s">
+      <c r="R15" s="37"/>
+      <c r="S15" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="T15" s="36" t="s">
+      <c r="T15" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U15" s="35" t="s">
+      <c r="U15" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="V15" s="40" t="s">
+      <c r="V15" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="W15" s="39" t="s">
+      <c r="W15" s="38" t="s">
         <v>185</v>
       </c>
       <c r="X15" s="25" t="s">
@@ -5002,48 +4908,48 @@
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="39" t="s">
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AB15" s="37" t="s">
+      <c r="AB15" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="AC15" s="39" t="s">
+      <c r="AC15" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="AD15" s="37" t="s">
+      <c r="AD15" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="AE15" s="39" t="s">
+      <c r="AE15" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AF15" s="37" t="s">
+      <c r="AF15" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="AG15" s="39" t="s">
+      <c r="AG15" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AH15" s="37" t="s">
+      <c r="AH15" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="AI15" s="39" t="s">
+      <c r="AI15" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AK15" s="39" t="s">
+      <c r="AK15" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="AL15" s="53" t="s">
+      <c r="AL15" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="AM15" s="39" t="s">
+      <c r="AM15" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="AN15" s="37" t="s">
+      <c r="AN15" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AO15" s="38"/>
-      <c r="AP15" s="41" t="str">
+      <c r="AO15" s="37"/>
+      <c r="AP15" s="40" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
@@ -5077,71 +4983,71 @@
 {{PD-art|PD-old-70-1923}}
 [[Category:Nederlandsche havengezichten enz., 1780-1781 - KONB16:533939704]]</v>
       </c>
-      <c r="AQ15" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="AR15" s="38"/>
-      <c r="AS15" s="39" t="s">
+      <c r="AQ15" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="AR15" s="37"/>
+      <c r="AS15" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="AT15" s="42" t="s">
+      <c r="AT15" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AU15" s="39" t="s">
+      <c r="AU15" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="AV15" s="42" t="s">
+      <c r="AV15" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="AW15" s="39" t="s">
+      <c r="AW15" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AX15" s="42" t="s">
+      <c r="AX15" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AY15" s="39" t="s">
+      <c r="AY15" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="AZ15" s="42" t="s">
+      <c r="AZ15" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="BA15" s="39" t="s">
+      <c r="BA15" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="BB15" s="42" t="s">
+      <c r="BB15" s="41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:127" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>260</v>
+    <row r="16" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
+        <v>297</v>
       </c>
       <c r="B16" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="D16" s="45" t="str">
+      <c r="D16" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
-      <c r="E16" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="F16" s="51" t="str">
+      <c r="E16" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="F16" s="49" t="str">
         <f t="shared" si="5"/>
         <v>E:\KB-OPEN\PresentatiesOlaf\2022\Workshop OpenRefine en Wikimedia Commons - Olaf Janssen - WikiconNL_19112022\dataset\images/KONB16_533939704_15_X.JPG</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="36" t="s">
+      <c r="G16" s="37"/>
+      <c r="H16" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="I16" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="45" t="str">
+      <c r="J16" s="43" t="str">
         <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
@@ -5149,38 +5055,38 @@
         <f t="shared" si="6"/>
         <v>KONB16:533939704 - 15/18</v>
       </c>
-      <c r="L16" s="38"/>
-      <c r="M16" s="39" t="s">
+      <c r="L16" s="37"/>
+      <c r="M16" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="N16" s="39" t="s">
+      <c r="N16" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="O16" s="45" t="str">
+      <c r="O16" s="43" t="str">
         <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
-      <c r="P16" s="39" t="s">
+      <c r="P16" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="Q16" s="45" t="str">
+      <c r="Q16" s="43" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
-      <c r="R16" s="38"/>
-      <c r="S16" s="36" t="s">
+      <c r="R16" s="37"/>
+      <c r="S16" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="T16" s="36" t="s">
+      <c r="T16" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U16" s="35" t="s">
+      <c r="U16" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="V16" s="40" t="s">
+      <c r="V16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="W16" s="39" t="s">
+      <c r="W16" s="38" t="s">
         <v>194</v>
       </c>
       <c r="X16" s="25" t="s">
@@ -5190,48 +5096,48 @@
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="39" t="s">
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AB16" s="37" t="s">
+      <c r="AB16" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="AC16" s="39" t="s">
+      <c r="AC16" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="AD16" s="37" t="s">
+      <c r="AD16" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="AE16" s="39" t="s">
+      <c r="AE16" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AF16" s="37" t="s">
+      <c r="AF16" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="AG16" s="39" t="s">
+      <c r="AG16" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AH16" s="37" t="s">
+      <c r="AH16" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="AI16" s="39" t="s">
+      <c r="AI16" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AK16" s="39" t="s">
+      <c r="AK16" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="AL16" s="53" t="s">
+      <c r="AL16" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="AM16" s="39" t="s">
+      <c r="AM16" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="AN16" s="37" t="s">
+      <c r="AN16" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AO16" s="38"/>
-      <c r="AP16" s="41" t="str">
+      <c r="AO16" s="37"/>
+      <c r="AP16" s="40" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
@@ -5265,71 +5171,71 @@
 {{PD-art|PD-old-70-1923}}
 [[Category:Nederlandsche havengezichten enz., 1780-1781 - KONB16:533939704]]</v>
       </c>
-      <c r="AQ16" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="AR16" s="38"/>
-      <c r="AS16" s="39" t="s">
+      <c r="AQ16" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="AR16" s="37"/>
+      <c r="AS16" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="AT16" s="42" t="s">
+      <c r="AT16" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AU16" s="39" t="s">
+      <c r="AU16" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="AV16" s="42" t="s">
+      <c r="AV16" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="AW16" s="39" t="s">
+      <c r="AW16" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="AX16" s="42" t="s">
+      <c r="AX16" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="AY16" s="39" t="s">
+      <c r="AY16" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="AZ16" s="42" t="s">
+      <c r="AZ16" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="BA16" s="39" t="s">
+      <c r="BA16" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="BB16" s="42" t="s">
+      <c r="BB16" s="41" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>258</v>
+    <row r="17" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
+        <v>298</v>
       </c>
       <c r="B17" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="D17" s="45" t="str">
+      <c r="D17" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
-      <c r="E17" s="52" t="s">
-        <v>280</v>
-      </c>
-      <c r="F17" s="51" t="str">
+      <c r="E17" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="F17" s="49" t="str">
         <f t="shared" si="5"/>
         <v>E:\KB-OPEN\PresentatiesOlaf\2022\Workshop OpenRefine en Wikimedia Commons - Olaf Janssen - WikiconNL_19112022\dataset\images/KONB16_533939704_16_X.JPG</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="36" t="s">
+      <c r="G17" s="37"/>
+      <c r="H17" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="45" t="str">
+      <c r="J17" s="43" t="str">
         <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
@@ -5337,38 +5243,38 @@
         <f t="shared" si="6"/>
         <v>KONB16:533939704 - 16/18</v>
       </c>
-      <c r="L17" s="38"/>
-      <c r="M17" s="39" t="s">
+      <c r="L17" s="37"/>
+      <c r="M17" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="N17" s="39" t="s">
+      <c r="N17" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="O17" s="45" t="str">
+      <c r="O17" s="43" t="str">
         <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
-      <c r="P17" s="39" t="s">
+      <c r="P17" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="Q17" s="45" t="str">
+      <c r="Q17" s="43" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
-      <c r="R17" s="38"/>
-      <c r="S17" s="36" t="s">
+      <c r="R17" s="37"/>
+      <c r="S17" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="T17" s="36" t="s">
+      <c r="T17" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U17" s="35" t="s">
+      <c r="U17" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="V17" s="40" t="s">
+      <c r="V17" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="W17" s="39" t="s">
+      <c r="W17" s="38" t="s">
         <v>204</v>
       </c>
       <c r="X17" s="25" t="s">
@@ -5378,48 +5284,48 @@
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="39" t="s">
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AB17" s="37" t="s">
+      <c r="AB17" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="AC17" s="39" t="s">
+      <c r="AC17" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="AD17" s="37" t="s">
+      <c r="AD17" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="AE17" s="39" t="s">
+      <c r="AE17" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AF17" s="37" t="s">
+      <c r="AF17" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="AG17" s="39" t="s">
+      <c r="AG17" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AH17" s="37" t="s">
+      <c r="AH17" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="AI17" s="39" t="s">
+      <c r="AI17" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AK17" s="39" t="s">
+      <c r="AK17" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="AL17" s="53" t="s">
+      <c r="AL17" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="AM17" s="39" t="s">
+      <c r="AM17" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="AN17" s="37" t="s">
+      <c r="AN17" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AO17" s="38"/>
-      <c r="AP17" s="41" t="str">
+      <c r="AO17" s="37"/>
+      <c r="AP17" s="40" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
@@ -5453,71 +5359,71 @@
 {{PD-art|PD-old-70-1923}}
 [[Category:Nederlandsche havengezichten enz., 1780-1781 - KONB16:533939704]]</v>
       </c>
-      <c r="AQ17" s="50" t="s">
-        <v>294</v>
-      </c>
-      <c r="AR17" s="38"/>
-      <c r="AS17" s="39" t="s">
+      <c r="AQ17" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="AR17" s="37"/>
+      <c r="AS17" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="AT17" s="42" t="s">
+      <c r="AT17" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AU17" s="39" t="s">
+      <c r="AU17" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="AV17" s="42" t="s">
+      <c r="AV17" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="AW17" s="39" t="s">
+      <c r="AW17" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AX17" s="42" t="s">
+      <c r="AX17" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AY17" s="39" t="s">
+      <c r="AY17" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="AZ17" s="42" t="s">
+      <c r="AZ17" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="BA17" s="39" t="s">
+      <c r="BA17" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="BB17" s="42" t="s">
+      <c r="BB17" s="41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>250</v>
+    <row r="18" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="34" t="s">
+        <v>299</v>
       </c>
       <c r="B18" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="D18" s="45" t="str">
+      <c r="D18" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
-      <c r="E18" s="52" t="s">
-        <v>281</v>
-      </c>
-      <c r="F18" s="51" t="str">
+      <c r="E18" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="F18" s="49" t="str">
         <f t="shared" si="5"/>
         <v>E:\KB-OPEN\PresentatiesOlaf\2022\Workshop OpenRefine en Wikimedia Commons - Olaf Janssen - WikiconNL_19112022\dataset\images/KONB16_533939704_17_X.JPG</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="36" t="s">
+      <c r="G18" s="37"/>
+      <c r="H18" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="I18" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="45" t="str">
+      <c r="J18" s="43" t="str">
         <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
@@ -5525,38 +5431,38 @@
         <f t="shared" si="6"/>
         <v>KONB16:533939704 - 17/18</v>
       </c>
-      <c r="L18" s="38"/>
-      <c r="M18" s="39" t="s">
+      <c r="L18" s="37"/>
+      <c r="M18" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="N18" s="39" t="s">
+      <c r="N18" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="O18" s="45" t="str">
+      <c r="O18" s="43" t="str">
         <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
-      <c r="P18" s="39" t="s">
+      <c r="P18" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="Q18" s="45" t="str">
+      <c r="Q18" s="43" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
-      <c r="R18" s="38"/>
-      <c r="S18" s="36" t="s">
+      <c r="R18" s="37"/>
+      <c r="S18" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="T18" s="36" t="s">
+      <c r="T18" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="35" t="s">
+      <c r="U18" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="V18" s="40" t="s">
+      <c r="V18" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="W18" s="39" t="s">
+      <c r="W18" s="38" t="s">
         <v>213</v>
       </c>
       <c r="X18" s="25" t="s">
@@ -5566,48 +5472,48 @@
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="39" t="s">
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AB18" s="37" t="s">
+      <c r="AB18" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="AC18" s="39" t="s">
+      <c r="AC18" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="AD18" s="37" t="s">
+      <c r="AD18" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="AE18" s="39" t="s">
+      <c r="AE18" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AF18" s="37" t="s">
+      <c r="AF18" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="AG18" s="39" t="s">
+      <c r="AG18" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AH18" s="37" t="s">
+      <c r="AH18" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="AI18" s="39" t="s">
+      <c r="AI18" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AK18" s="39" t="s">
+      <c r="AK18" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="AL18" s="53" t="s">
+      <c r="AL18" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="AM18" s="39" t="s">
+      <c r="AM18" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="AN18" s="37" t="s">
+      <c r="AN18" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AO18" s="38"/>
-      <c r="AP18" s="41" t="str">
+      <c r="AO18" s="37"/>
+      <c r="AP18" s="40" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
@@ -5641,71 +5547,71 @@
 {{PD-art|PD-old-70-1923}}
 [[Category:Nederlandsche havengezichten enz., 1780-1781 - KONB16:533939704]]</v>
       </c>
-      <c r="AQ18" s="50" t="s">
-        <v>299</v>
-      </c>
-      <c r="AR18" s="38"/>
-      <c r="AS18" s="39" t="s">
+      <c r="AQ18" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR18" s="37"/>
+      <c r="AS18" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="AT18" s="42" t="s">
+      <c r="AT18" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AU18" s="39" t="s">
+      <c r="AU18" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AV18" s="42" t="s">
+      <c r="AV18" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AW18" s="39" t="s">
+      <c r="AW18" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="AX18" s="42" t="s">
+      <c r="AX18" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="AY18" s="39" t="s">
+      <c r="AY18" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="AZ18" s="42" t="s">
+      <c r="AZ18" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="BA18" s="39" t="s">
+      <c r="BA18" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="BB18" s="42" t="s">
+      <c r="BB18" s="41" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>259</v>
+    <row r="19" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
+        <v>300</v>
       </c>
       <c r="B19" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="D19" s="45" t="str">
+      <c r="D19" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
-      <c r="E19" s="52" t="s">
-        <v>282</v>
-      </c>
-      <c r="F19" s="51" t="str">
+      <c r="E19" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="F19" s="49" t="str">
         <f t="shared" si="5"/>
         <v>E:\KB-OPEN\PresentatiesOlaf\2022\Workshop OpenRefine en Wikimedia Commons - Olaf Janssen - WikiconNL_19112022\dataset\images/KONB16_533939704_18_X.JPG</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="36" t="s">
+      <c r="G19" s="37"/>
+      <c r="H19" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="45" t="str">
+      <c r="J19" s="43" t="str">
         <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
@@ -5713,38 +5619,38 @@
         <f t="shared" si="6"/>
         <v>KONB16:533939704 - 18/18</v>
       </c>
-      <c r="L19" s="38"/>
-      <c r="M19" s="39" t="s">
+      <c r="L19" s="37"/>
+      <c r="M19" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="N19" s="39" t="s">
+      <c r="N19" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="O19" s="45" t="str">
+      <c r="O19" s="43" t="str">
         <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
-      <c r="P19" s="39" t="s">
+      <c r="P19" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="Q19" s="45" t="str">
+      <c r="Q19" s="43" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
-      <c r="R19" s="38"/>
-      <c r="S19" s="36" t="s">
+      <c r="R19" s="37"/>
+      <c r="S19" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="T19" s="36" t="s">
+      <c r="T19" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U19" s="35" t="s">
+      <c r="U19" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="V19" s="40" t="s">
+      <c r="V19" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="W19" s="39" t="s">
+      <c r="W19" s="38" t="s">
         <v>220</v>
       </c>
       <c r="X19" s="25" t="s">
@@ -5754,48 +5660,48 @@
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="39" t="s">
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AB19" s="37" t="s">
+      <c r="AB19" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="AC19" s="39" t="s">
+      <c r="AC19" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="AD19" s="37" t="s">
+      <c r="AD19" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="AE19" s="39" t="s">
+      <c r="AE19" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AF19" s="37" t="s">
+      <c r="AF19" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="AG19" s="39" t="s">
+      <c r="AG19" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AH19" s="37" t="s">
+      <c r="AH19" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="AI19" s="39" t="s">
+      <c r="AI19" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AK19" s="39" t="s">
+      <c r="AK19" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="AL19" s="53" t="s">
+      <c r="AL19" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="AM19" s="39" t="s">
+      <c r="AM19" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="AN19" s="37" t="s">
+      <c r="AN19" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AO19" s="38"/>
-      <c r="AP19" s="41" t="str">
+      <c r="AO19" s="37"/>
+      <c r="AP19" s="40" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
@@ -5829,38 +5735,38 @@
 {{PD-art|PD-old-70-1923}}
 [[Category:Nederlandsche havengezichten enz., 1780-1781 - KONB16:533939704]]</v>
       </c>
-      <c r="AQ19" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="AR19" s="38"/>
-      <c r="AS19" s="39" t="s">
+      <c r="AQ19" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="AR19" s="37"/>
+      <c r="AS19" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="AT19" s="42" t="s">
+      <c r="AT19" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AU19" s="39" t="s">
+      <c r="AU19" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="AV19" s="42" t="s">
+      <c r="AV19" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="AW19" s="39" t="s">
+      <c r="AW19" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AX19" s="42" t="s">
+      <c r="AX19" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AY19" s="39" t="s">
+      <c r="AY19" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="AZ19" s="42" t="s">
+      <c r="AZ19" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="BA19" s="39" t="s">
+      <c r="BA19" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="BB19" s="42" t="s">
+      <c r="BB19" s="41" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5879,26 +5785,26 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="6" customWidth="1"/>
     <col min="2" max="2" width="18" style="6" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="6" customWidth="1"/>
     <col min="9" max="9" width="17" style="6" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" style="6" customWidth="1"/>
     <col min="11" max="11" width="16" style="6" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="6"/>
+    <col min="12" max="12" width="15.44140625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -5938,7 +5844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
@@ -5981,7 +5887,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>56</v>
       </c>
@@ -6024,7 +5930,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>69</v>
       </c>
@@ -6067,7 +5973,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>79</v>
       </c>
@@ -6110,7 +6016,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>90</v>
       </c>
@@ -6153,7 +6059,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>102</v>
       </c>
@@ -6196,7 +6102,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>111</v>
       </c>
@@ -6239,7 +6145,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>120</v>
       </c>
@@ -6282,7 +6188,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>133</v>
       </c>
@@ -6325,7 +6231,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>142</v>
       </c>
@@ -6368,7 +6274,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>151</v>
       </c>
@@ -6411,7 +6317,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>160</v>
       </c>
@@ -6454,7 +6360,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>171</v>
       </c>
@@ -6497,7 +6403,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>180</v>
       </c>
@@ -6540,7 +6446,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>189</v>
       </c>
@@ -6583,7 +6489,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>199</v>
       </c>
@@ -6626,7 +6532,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>208</v>
       </c>
@@ -6669,7 +6575,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>215</v>
       </c>
@@ -6712,109 +6618,109 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="18"/>
       <c r="E22" s="18"/>
       <c r="G22" s="18"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="E23" s="18"/>
       <c r="G23" s="18"/>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18"/>
       <c r="E24" s="18"/>
       <c r="G24" s="18"/>
       <c r="I24" s="18"/>
     </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="18"/>
       <c r="E25" s="18"/>
       <c r="G25" s="18"/>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="18"/>
       <c r="E26" s="18"/>
       <c r="G26" s="18"/>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="18"/>
       <c r="E27" s="18"/>
       <c r="G27" s="18"/>
       <c r="I27" s="18"/>
     </row>
-    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="18"/>
       <c r="E28" s="18"/>
       <c r="G28" s="18"/>
       <c r="I28" s="18"/>
     </row>
-    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="18"/>
       <c r="E29" s="18"/>
       <c r="G29" s="18"/>
       <c r="I29" s="18"/>
     </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="18"/>
       <c r="E30" s="18"/>
       <c r="G30" s="18"/>
       <c r="I30" s="18"/>
     </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="18"/>
       <c r="E31" s="18"/>
       <c r="G31" s="18"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
       <c r="E32" s="18"/>
       <c r="G32" s="18"/>
       <c r="I32" s="18"/>
     </row>
-    <row r="33" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18"/>
       <c r="E33" s="18"/>
       <c r="G33" s="18"/>
       <c r="I33" s="18"/>
     </row>
-    <row r="34" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18"/>
       <c r="E34" s="18"/>
       <c r="G34" s="18"/>
       <c r="I34" s="18"/>
     </row>
-    <row r="35" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18"/>
       <c r="E35" s="18"/>
       <c r="G35" s="18"/>
       <c r="I35" s="18"/>
     </row>
-    <row r="36" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="18"/>
       <c r="E36" s="18"/>
       <c r="G36" s="18"/>
       <c r="I36" s="18"/>
     </row>
-    <row r="37" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="18"/>
       <c r="E37" s="18"/>
       <c r="G37" s="18"/>
       <c r="I37" s="18"/>
     </row>
-    <row r="38" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="18"/>
       <c r="E38" s="18"/>
       <c r="G38" s="18"/>
       <c r="I38" s="18"/>
     </row>
-    <row r="39" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="18"/>
       <c r="E39" s="18"/>
       <c r="G39" s="18"/>

--- a/Dataset_WorkshopOpenRefine_WikiconNL19112022.xlsx
+++ b/Dataset_WorkshopOpenRefine_WikiconNL19112022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KB-OPEN\PresentatiesOlaf\2022\Workshop OpenRefine en Wikimedia Commons - Olaf Janssen - WikiconNL_19112022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFBAD06-EC88-44CC-A1BE-425048CB3ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E9B7A6-A5E4-458A-90C2-85E6ED3CED6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{90EC6D77-F4E2-4E6C-8193-060F20233EC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{90EC6D77-F4E2-4E6C-8193-060F20233EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="WorkshopOR_19112022" sheetId="1" r:id="rId1"/>
@@ -1465,10 +1465,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1649,175 +1656,178 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2137,69 +2147,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DE18BA-F0D7-4356-8A5F-C19BD00FC435}">
   <dimension ref="A1:BB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="BC1" sqref="BC1:BM1048576"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="128.88671875" style="38" customWidth="1"/>
+    <col min="1" max="1" width="123.7109375" style="38" customWidth="1"/>
     <col min="2" max="2" width="6" style="44" customWidth="1"/>
-    <col min="3" max="3" width="85.5546875" style="38" customWidth="1"/>
-    <col min="4" max="4" width="4.5546875" style="44" customWidth="1"/>
+    <col min="3" max="3" width="85.5703125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" style="44" customWidth="1"/>
     <col min="5" max="5" width="37" style="46" customWidth="1"/>
-    <col min="6" max="6" width="113.88671875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="4.44140625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" style="38" customWidth="1"/>
-    <col min="9" max="9" width="57.33203125" style="38" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="44"/>
-    <col min="11" max="11" width="30.33203125" style="38" customWidth="1"/>
-    <col min="12" max="12" width="3.5546875" style="33" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" style="38" customWidth="1"/>
-    <col min="14" max="14" width="42.44140625" style="38" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="44"/>
+    <col min="6" max="6" width="113.85546875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="57.28515625" style="38" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="44"/>
+    <col min="11" max="11" width="30.28515625" style="38" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" style="33" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" style="38" customWidth="1"/>
+    <col min="14" max="14" width="42.42578125" style="38" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="44"/>
     <col min="16" max="16" width="47" style="38" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="44"/>
-    <col min="18" max="18" width="3.5546875" style="33" customWidth="1"/>
-    <col min="19" max="20" width="17.44140625" style="38" customWidth="1"/>
-    <col min="21" max="21" width="68.88671875" style="38" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="44"/>
+    <col min="18" max="18" width="3.5703125" style="33" customWidth="1"/>
+    <col min="19" max="20" width="17.42578125" style="38" customWidth="1"/>
+    <col min="21" max="21" width="68.85546875" style="38" customWidth="1"/>
     <col min="22" max="22" width="150" style="38" customWidth="1"/>
-    <col min="23" max="23" width="26.44140625" style="38" customWidth="1"/>
-    <col min="24" max="24" width="72.88671875" style="38" customWidth="1"/>
-    <col min="25" max="25" width="4.5546875" style="44" customWidth="1"/>
-    <col min="26" max="26" width="3.5546875" style="33" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" style="38" customWidth="1"/>
-    <col min="28" max="28" width="41.44140625" style="38" customWidth="1"/>
-    <col min="29" max="29" width="20.33203125" style="38" customWidth="1"/>
-    <col min="30" max="30" width="38.6640625" style="38" customWidth="1"/>
-    <col min="31" max="31" width="19.88671875" style="38" customWidth="1"/>
-    <col min="32" max="32" width="39.88671875" style="38" customWidth="1"/>
-    <col min="33" max="33" width="20.6640625" style="38" customWidth="1"/>
-    <col min="34" max="34" width="39.6640625" style="33" customWidth="1"/>
-    <col min="35" max="35" width="37.5546875" style="38" customWidth="1"/>
-    <col min="36" max="36" width="38.44140625" style="38" customWidth="1"/>
-    <col min="37" max="37" width="36.109375" style="38" customWidth="1"/>
-    <col min="38" max="38" width="40.88671875" style="38" customWidth="1"/>
-    <col min="39" max="39" width="33.88671875" style="38" customWidth="1"/>
-    <col min="40" max="40" width="39.88671875" style="38" customWidth="1"/>
-    <col min="41" max="41" width="3.109375" style="33" customWidth="1"/>
-    <col min="42" max="42" width="27.6640625" style="34" customWidth="1"/>
-    <col min="43" max="43" width="23.33203125" style="48" customWidth="1"/>
-    <col min="44" max="44" width="3.33203125" style="33" customWidth="1"/>
-    <col min="45" max="45" width="11.6640625" style="33" customWidth="1"/>
-    <col min="46" max="46" width="10.6640625" style="33" customWidth="1"/>
-    <col min="47" max="47" width="19.44140625" style="33" customWidth="1"/>
-    <col min="48" max="48" width="12.109375" style="33" customWidth="1"/>
-    <col min="49" max="49" width="12.33203125" style="33" customWidth="1"/>
-    <col min="50" max="50" width="12.109375" style="33" customWidth="1"/>
-    <col min="51" max="51" width="13.6640625" style="33" customWidth="1"/>
-    <col min="52" max="52" width="18.44140625" style="33" customWidth="1"/>
-    <col min="53" max="53" width="13.44140625" style="33" customWidth="1"/>
-    <col min="54" max="54" width="18.44140625" style="33" customWidth="1"/>
-    <col min="55" max="16384" width="9.109375" style="33"/>
+    <col min="23" max="23" width="26.42578125" style="38" customWidth="1"/>
+    <col min="24" max="24" width="72.85546875" style="38" customWidth="1"/>
+    <col min="25" max="25" width="4.5703125" style="44" customWidth="1"/>
+    <col min="26" max="26" width="3.5703125" style="33" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="38" customWidth="1"/>
+    <col min="28" max="28" width="41.42578125" style="38" customWidth="1"/>
+    <col min="29" max="29" width="20.28515625" style="38" customWidth="1"/>
+    <col min="30" max="30" width="38.7109375" style="38" customWidth="1"/>
+    <col min="31" max="31" width="19.85546875" style="38" customWidth="1"/>
+    <col min="32" max="32" width="39.85546875" style="38" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" style="38" customWidth="1"/>
+    <col min="34" max="34" width="39.7109375" style="33" customWidth="1"/>
+    <col min="35" max="35" width="42.42578125" style="38" customWidth="1"/>
+    <col min="36" max="36" width="38.42578125" style="38" customWidth="1"/>
+    <col min="37" max="37" width="36.140625" style="38" customWidth="1"/>
+    <col min="38" max="38" width="40.85546875" style="38" customWidth="1"/>
+    <col min="39" max="39" width="19.7109375" style="38" customWidth="1"/>
+    <col min="40" max="40" width="21.42578125" style="38" customWidth="1"/>
+    <col min="41" max="41" width="3.140625" style="33" customWidth="1"/>
+    <col min="42" max="42" width="48.28515625" style="34" customWidth="1"/>
+    <col min="43" max="43" width="75.5703125" style="48" customWidth="1"/>
+    <col min="44" max="44" width="3.28515625" style="33" customWidth="1"/>
+    <col min="45" max="45" width="11.7109375" style="33" customWidth="1"/>
+    <col min="46" max="46" width="10.7109375" style="33" customWidth="1"/>
+    <col min="47" max="47" width="19.42578125" style="33" customWidth="1"/>
+    <col min="48" max="48" width="12.140625" style="33" customWidth="1"/>
+    <col min="49" max="49" width="12.28515625" style="33" customWidth="1"/>
+    <col min="50" max="50" width="12.140625" style="33" customWidth="1"/>
+    <col min="51" max="51" width="13.7109375" style="33" customWidth="1"/>
+    <col min="52" max="52" width="18.42578125" style="33" customWidth="1"/>
+    <col min="53" max="53" width="13.42578125" style="33" customWidth="1"/>
+    <col min="54" max="54" width="18.42578125" style="33" customWidth="1"/>
+    <col min="55" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2339,7 +2349,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="57" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" s="57" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>283</v>
       </c>
@@ -2557,7 +2567,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="57" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" s="57" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>284</v>
       </c>
@@ -2775,7 +2785,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:54" s="57" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" s="57" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>285</v>
       </c>
@@ -2963,7 +2973,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:54" s="57" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" s="57" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="66" t="s">
         <v>286</v>
       </c>
@@ -3151,7 +3161,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:54" s="57" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" s="57" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="66" t="s">
         <v>287</v>
       </c>
@@ -3331,7 +3341,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>288</v>
       </c>
@@ -3519,8 +3529,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="68" t="s">
         <v>289</v>
       </c>
       <c r="B8" s="5" t="str">
@@ -3707,7 +3717,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>290</v>
       </c>
@@ -3895,7 +3905,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>291</v>
       </c>
@@ -4083,8 +4093,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="68" t="s">
         <v>292</v>
       </c>
       <c r="B11" s="5" t="str">
@@ -4271,7 +4281,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>293</v>
       </c>
@@ -4459,7 +4469,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>294</v>
       </c>
@@ -4647,7 +4657,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>295</v>
       </c>
@@ -4830,7 +4840,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>296</v>
       </c>
@@ -5018,7 +5028,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>297</v>
       </c>
@@ -5206,7 +5216,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>298</v>
       </c>
@@ -5394,7 +5404,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
         <v>299</v>
       </c>
@@ -5582,7 +5592,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>300</v>
       </c>
@@ -5771,7 +5781,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -5785,26 +5795,26 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="6" customWidth="1"/>
     <col min="2" max="2" width="18" style="6" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="6" customWidth="1"/>
     <col min="9" max="9" width="17" style="6" customWidth="1"/>
-    <col min="10" max="10" width="20.88671875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="6" customWidth="1"/>
     <col min="11" max="11" width="16" style="6" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="6"/>
+    <col min="12" max="12" width="15.42578125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -5844,7 +5854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
@@ -5887,7 +5897,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>56</v>
       </c>
@@ -5930,7 +5940,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>69</v>
       </c>
@@ -5973,7 +5983,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>79</v>
       </c>
@@ -6016,7 +6026,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>90</v>
       </c>
@@ -6059,7 +6069,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>102</v>
       </c>
@@ -6102,7 +6112,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>111</v>
       </c>
@@ -6145,7 +6155,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>120</v>
       </c>
@@ -6188,7 +6198,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>133</v>
       </c>
@@ -6231,7 +6241,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>142</v>
       </c>
@@ -6274,7 +6284,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>151</v>
       </c>
@@ -6317,7 +6327,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>160</v>
       </c>
@@ -6360,7 +6370,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>171</v>
       </c>
@@ -6403,7 +6413,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>180</v>
       </c>
@@ -6446,7 +6456,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>189</v>
       </c>
@@ -6489,7 +6499,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>199</v>
       </c>
@@ -6532,7 +6542,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>208</v>
       </c>
@@ -6575,7 +6585,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>215</v>
       </c>
@@ -6618,109 +6628,109 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="E22" s="18"/>
       <c r="G22" s="18"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="E23" s="18"/>
       <c r="G23" s="18"/>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="E24" s="18"/>
       <c r="G24" s="18"/>
       <c r="I24" s="18"/>
     </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="E25" s="18"/>
       <c r="G25" s="18"/>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="E26" s="18"/>
       <c r="G26" s="18"/>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18"/>
       <c r="E27" s="18"/>
       <c r="G27" s="18"/>
       <c r="I27" s="18"/>
     </row>
-    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
       <c r="E28" s="18"/>
       <c r="G28" s="18"/>
       <c r="I28" s="18"/>
     </row>
-    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="E29" s="18"/>
       <c r="G29" s="18"/>
       <c r="I29" s="18"/>
     </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18"/>
       <c r="E30" s="18"/>
       <c r="G30" s="18"/>
       <c r="I30" s="18"/>
     </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="E31" s="18"/>
       <c r="G31" s="18"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="E32" s="18"/>
       <c r="G32" s="18"/>
       <c r="I32" s="18"/>
     </row>
-    <row r="33" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
       <c r="E33" s="18"/>
       <c r="G33" s="18"/>
       <c r="I33" s="18"/>
     </row>
-    <row r="34" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18"/>
       <c r="E34" s="18"/>
       <c r="G34" s="18"/>
       <c r="I34" s="18"/>
     </row>
-    <row r="35" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18"/>
       <c r="E35" s="18"/>
       <c r="G35" s="18"/>
       <c r="I35" s="18"/>
     </row>
-    <row r="36" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18"/>
       <c r="E36" s="18"/>
       <c r="G36" s="18"/>
       <c r="I36" s="18"/>
     </row>
-    <row r="37" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18"/>
       <c r="E37" s="18"/>
       <c r="G37" s="18"/>
       <c r="I37" s="18"/>
     </row>
-    <row r="38" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18"/>
       <c r="E38" s="18"/>
       <c r="G38" s="18"/>
       <c r="I38" s="18"/>
     </row>
-    <row r="39" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18"/>
       <c r="E39" s="18"/>
       <c r="G39" s="18"/>
